--- a/sensitivity.xlsx
+++ b/sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uoftMMF2025 Risk Management Lab\roboadvisor-main\roboadvisor-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB72E068-6878-4B07-AE7A-FE2A997D6F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7581ACC5-4B2F-4481-80A4-C2FECC2F1103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70" yWindow="2840" windowWidth="19130" windowHeight="7360" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="19">
   <si>
     <t>portfRet_up_df</t>
   </si>
@@ -59,7 +59,16 @@
     <t>const</t>
   </si>
   <si>
-    <t>INDPRO</t>
+    <t>USACPIALLMINMEI</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>T10Y3MM</t>
+  </si>
+  <si>
+    <t>MCOILWTICO</t>
   </si>
   <si>
     <t>HOUST</t>
@@ -77,6 +86,9 @@
     <t>AllocationModel</t>
   </si>
   <si>
+    <t>CVaR</t>
+  </si>
+  <si>
     <t>constant</t>
   </si>
   <si>
@@ -87,6 +99,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -140,19 +155,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -194,7 +281,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -229,21 +316,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.4422164487326922E-3</c:v>
+                  <c:v>6.4794480513910568E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8770720677982953E-3</c:v>
+                  <c:v>3.5561659518892619E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5246712798353272E-2</c:v>
+                  <c:v>1.192879696500756E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6310581210666891E-3</c:v>
+                  <c:v>3.0513149313013618E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5803728004201878E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.448779293638229E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1467337841990692E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,7 +347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC2D-44B8-9322-200C85CB3BE4}"/>
+              <c16:uniqueId val="{00000000-1731-43D3-B5FD-3BABB64B10FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -260,7 +356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -295,21 +391,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.7602332017481819E-3</c:v>
+                  <c:v>6.7260307580166712E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0954453920628341E-3</c:v>
+                  <c:v>4.1200223188522511E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1544025783697277E-2</c:v>
+                  <c:v>1.188581834669649E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1228835817124442E-3</c:v>
+                  <c:v>3.596463068101866E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5492084891314879E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.443928985462143E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0611880568277109E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,7 +422,58 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC2D-44B8-9322-200C85CB3BE4}"/>
+              <c16:uniqueId val="{00000001-1731-43D3-B5FD-3BABB64B10FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CVaR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.7345593173510407E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5364278356139401E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2049145422024069E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8479689434953152E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8603778605296268E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.486526229706037E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4327926247827593E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1731-43D3-B5FD-3BABB64B10FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -346,7 +502,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -509,7 +665,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$8</c:f>
+              <c:f>Sheet1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -544,21 +700,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$12</c:f>
+              <c:f>Sheet1!$B$13:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.98051240259147E-3</c:v>
+                  <c:v>9.4247733587482091E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2630845930586676E-3</c:v>
+                  <c:v>1.088641440849911E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.042173577221882E-2</c:v>
+                  <c:v>6.7000989019399548E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8860915664244728E-3</c:v>
+                  <c:v>1.113883991879306E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3743109842336419E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4206009162525923E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.0691715365516087E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,7 +731,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-26B2-408D-BA9F-427851F8A8EA}"/>
+              <c16:uniqueId val="{00000000-49AE-4307-9725-2CE2F5DD214A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -575,7 +740,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$8</c:f>
+              <c:f>Sheet1!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -610,21 +775,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$12</c:f>
+              <c:f>Sheet1!$D$13:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.2750505554884008E-3</c:v>
+                  <c:v>9.2598197729016479E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6074444603310732E-3</c:v>
+                  <c:v>1.056282399248386E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.6168457354861517E-3</c:v>
+                  <c:v>6.6799259785617418E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0937253655062697E-3</c:v>
+                  <c:v>1.0824603617859059E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3482309073442465E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4031902245992788E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.6831051322285614E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +806,58 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-26B2-408D-BA9F-427851F8A8EA}"/>
+              <c16:uniqueId val="{00000001-49AE-4307-9725-2CE2F5DD214A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CVaR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$13:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0264018497600559E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.136308423846911E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6067254452640435E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7073136845284222E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7011092260112612E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1986670077458931E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5326649676377169E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-49AE-4307-9725-2CE2F5DD214A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -661,7 +886,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -673,21 +898,11 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -732,21 +947,11 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -767,21 +972,11 @@
         </a:ln>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -791,6 +986,23 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -824,7 +1036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$8</c:f>
+              <c:f>Sheet1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -859,7 +1071,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$18</c:f>
+              <c:f>Sheet1!$A$24:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -877,18 +1089,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$18</c:f>
+              <c:f>Sheet1!$B$24:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.1189584161067843</c:v>
+                  <c:v>0.17468669628652511</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.317289110031382E-2</c:v>
+                  <c:v>0.1470102526051513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6986046411914347E-2</c:v>
+                  <c:v>0.1455912667960613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,7 +1108,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7182-42FB-ACE7-0B2178F9A3C3}"/>
+              <c16:uniqueId val="{00000000-56FB-4274-9FCD-F76982C77B0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -905,7 +1117,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$8</c:f>
+              <c:f>Sheet1!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -940,7 +1152,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$18</c:f>
+              <c:f>Sheet1!$A$24:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -958,18 +1170,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$18</c:f>
+              <c:f>Sheet1!$D$24:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.8271048594665868E-2</c:v>
+                  <c:v>0.16194920687103789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1555784687326693E-2</c:v>
+                  <c:v>0.1381238890442332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1221803156735042E-2</c:v>
+                  <c:v>0.1370816658569555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +1189,46 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7182-42FB-ACE7-0B2178F9A3C3}"/>
+              <c16:uniqueId val="{00000001-56FB-4274-9FCD-F76982C77B0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CVaR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1431348463092551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1277982034344502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1183888515222242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-56FB-4274-9FCD-F76982C77B0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1007,7 +1258,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1170,7 +1421,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$22</c:f>
+              <c:f>Sheet1!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1205,7 +1456,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$25</c:f>
+              <c:f>Sheet1!$A$31:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1223,18 +1474,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$25</c:f>
+              <c:f>Sheet1!$B$31:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-2.9998747164666321E-2</c:v>
+                  <c:v>-9.1057557502310316E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9438969864153852E-2</c:v>
+                  <c:v>-8.9924348643959151E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.6942835531774751E-2</c:v>
+                  <c:v>-8.4650381842090533E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,7 +1493,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1AF3-4BCD-8768-968EBA92BFB7}"/>
+              <c16:uniqueId val="{00000000-4E85-4995-B818-B284D8F87DC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1251,7 +1502,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$22</c:f>
+              <c:f>Sheet1!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1286,7 +1537,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$25</c:f>
+              <c:f>Sheet1!$A$31:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1304,18 +1555,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$23:$C$25</c:f>
+              <c:f>Sheet1!$D$31:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-3.2342776434759267E-2</c:v>
+                  <c:v>-9.4859782036337104E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.1016259767815611E-2</c:v>
+                  <c:v>-8.0266855367553944E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.5879885986104759E-2</c:v>
+                  <c:v>-7.926182045070676E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1574,46 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1AF3-4BCD-8768-968EBA92BFB7}"/>
+              <c16:uniqueId val="{00000001-4E85-4995-B818-B284D8F87DC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CVaR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$31:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-9.1011711689489322E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.8614152138047186E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.7413422889640699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E85-4995-B818-B284D8F87DC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1353,7 +1643,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1495,16 +1785,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1531,16 +1821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1567,15 +1857,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1603,15 +1893,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1903,269 +2193,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="13"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>portfRet_up_df!A3</f>
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <f>portfRet_up_df!G3</f>
-        <v>4.4422164487326922E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <f>portfRet_up_df!G8</f>
-        <v>3.7602332017481819E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" s="1">
-        <f>portfRet_up_df!G4</f>
-        <v>5.8770720677982953E-3</v>
-      </c>
-      <c r="C3" s="1">
-        <f>portfRet_up_df!G9</f>
-        <v>5.0954453920628341E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <f>portfRet_up_df!J3</f>
+        <v>6.4794480513910568E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <f>portfRet_up_df!J12</f>
+        <v>6.7260307580166712E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>portfRet_up_df!J22</f>
+        <v>8.7345593173510407E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
+        <f>portfRet_up_df!A4</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <f>portfRet_up_df!J4</f>
+        <v>3.5561659518892619E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <f>portfRet_up_df!J13</f>
+        <v>4.1200223188522511E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <f>portfRet_up_df!J23</f>
+        <v>6.5364278356139401E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>portfRet_up_df!A5</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <f>portfRet_up_df!G5</f>
-        <v>3.5246712798353272E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <f>portfRet_up_df!G10</f>
-        <v>3.1544025783697277E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="B5" s="1">
+        <f>portfRet_up_df!J5</f>
+        <v>1.192879696500756E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f>portfRet_up_df!J14</f>
+        <v>1.188581834669649E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f>portfRet_up_df!J24</f>
+        <v>1.2049145422024069E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>portfRet_up_df!A6</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <f>portfRet_up_df!G6</f>
-        <v>2.6310581210666891E-3</v>
-      </c>
-      <c r="C5" s="1">
-        <f>portfRet_up_df!G11</f>
-        <v>2.1228835817124442E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B6" s="1">
+        <f>portfRet_up_df!J6</f>
+        <v>3.0513149313013618E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <f>portfRet_up_df!J15</f>
+        <v>3.596463068101866E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <f>portfRet_up_df!J25</f>
+        <v>9.8479689434953152E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f>portfRet_up_df!A7</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <f>portfRet_up_df!J7</f>
+        <v>8.5803728004201878E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <f>portfRet_up_df!J16</f>
+        <v>8.5492084891314879E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <f>portfRet_up_df!J26</f>
+        <v>9.8603778605296268E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>portfRet_up_df!A8</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <f>portfRet_up_df!J8</f>
+        <v>1.448779293638229E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f>portfRet_up_df!J17</f>
+        <v>1.443928985462143E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f>portfRet_up_df!J27</f>
+        <v>1.486526229706037E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f>portfRet_up_df!A9</f>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <f>portfRet_up_df!J9</f>
+        <v>4.1467337841990692E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <f>portfRet_up_df!J18</f>
+        <v>4.0611880568277109E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <f>portfRet_up_df!J28</f>
+        <v>3.4327926247827593E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="E12" s="12"/>
+      <c r="F12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f>portfRet_down_df!A3</f>
         <v>0</v>
       </c>
-      <c r="B9" s="1">
-        <f>portfRet_down_df!G3</f>
-        <v>4.98051240259147E-3</v>
-      </c>
-      <c r="C9" s="1">
-        <f>portfRet_down_df!G8</f>
-        <v>4.2750505554884008E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <f>portfRet_down_df!G4</f>
-        <v>4.2630845930586676E-3</v>
-      </c>
-      <c r="C10" s="1">
-        <f>portfRet_down_df!G9</f>
-        <v>3.6074444603310732E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="B13" s="1">
+        <f>portfRet_down_df!J3</f>
+        <v>9.4247733587482091E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f>portfRet_down_df!J12</f>
+        <v>9.2598197729016479E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <f>portfRet_down_df!J22</f>
+        <v>1.0264018497600559E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>portfRet_down_df!A4</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <f>portfRet_down_df!J4</f>
+        <v>1.088641440849911E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <f>portfRet_down_df!J13</f>
+        <v>1.056282399248386E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f>portfRet_down_df!J23</f>
+        <v>1.136308423846911E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f>portfRet_down_df!A5</f>
         <v>2</v>
       </c>
-      <c r="B11" s="1">
-        <f>portfRet_down_df!G5</f>
-        <v>-1.042173577221882E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <f>portfRet_down_df!G10</f>
-        <v>-9.6168457354861517E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B15" s="1">
+        <f>portfRet_down_df!J5</f>
+        <v>6.7000989019399548E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <f>portfRet_down_df!J14</f>
+        <v>6.6799259785617418E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <f>portfRet_down_df!J24</f>
+        <v>8.6067254452640435E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f>portfRet_down_df!A6</f>
         <v>3</v>
       </c>
-      <c r="B12" s="1">
-        <f>portfRet_down_df!G6</f>
-        <v>5.8860915664244728E-3</v>
-      </c>
-      <c r="C12" s="1">
-        <f>portfRet_down_df!G11</f>
-        <v>5.0937253655062697E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B16" s="1">
+        <f>portfRet_down_df!J6</f>
+        <v>1.113883991879306E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <f>portfRet_down_df!J15</f>
+        <v>1.0824603617859059E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <f>portfRet_down_df!J25</f>
+        <v>9.7073136845284222E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f>portfRet_down_df!A7</f>
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B17" s="1">
+        <f>portfRet_down_df!J7</f>
+        <v>8.3743109842336419E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <f>portfRet_down_df!J16</f>
+        <v>8.3482309073442465E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <f>portfRet_down_df!J26</f>
+        <v>9.7011092260112612E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f>portfRet_down_df!A8</f>
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <f>portfRet_down_df!J8</f>
+        <v>5.4206009162525923E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <f>portfRet_down_df!J17</f>
+        <v>5.4031902245992788E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <f>portfRet_down_df!J27</f>
+        <v>7.1986670077458931E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f>portfRet_down_df!A9</f>
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <f>portfRet_down_df!J9</f>
+        <v>-8.0691715365516087E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f>portfRet_down_df!J18</f>
+        <v>-7.6831051322285614E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <f>portfRet_down_df!J28</f>
+        <v>-2.5326649676377169E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="E23" s="12"/>
+      <c r="F23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>0</v>
       </c>
-      <c r="B16" s="1">
-        <f>upScenario!G3</f>
-        <v>0.1189584161067843</v>
-      </c>
-      <c r="C16" s="1">
-        <f>upScenario!G8</f>
-        <v>7.8271048594665868E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <f>upScenario!G4</f>
-        <v>9.317289110031382E-2</v>
-      </c>
-      <c r="C17" s="1">
-        <f>upScenario!G9</f>
-        <v>7.1555784687326693E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="B24" s="1">
+        <f>upScenario!J3</f>
+        <v>0.17468669628652511</v>
+      </c>
+      <c r="D24" s="1">
+        <f>upScenario!J12</f>
+        <v>0.16194920687103789</v>
+      </c>
+      <c r="F24" s="1">
+        <f>upScenario!J22</f>
+        <v>0.1431348463092551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <f>upScenario!J4</f>
+        <v>0.1470102526051513</v>
+      </c>
+      <c r="D25" s="1">
+        <f>upScenario!J13</f>
+        <v>0.1381238890442332</v>
+      </c>
+      <c r="F25" s="1">
+        <f>upScenario!J23</f>
+        <v>0.1277982034344502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B18" s="1">
-        <f>upScenario!G5</f>
-        <v>8.6986046411914347E-2</v>
-      </c>
-      <c r="C18" s="1">
-        <f>upScenario!G10</f>
-        <v>7.1221803156735042E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B26" s="1">
+        <f>upScenario!J5</f>
+        <v>0.1455912667960613</v>
+      </c>
+      <c r="D26" s="1">
+        <f>upScenario!J14</f>
+        <v>0.1370816658569555</v>
+      </c>
+      <c r="F26" s="1">
+        <f>upScenario!J24</f>
+        <v>0.1183888515222242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="E30" s="12"/>
+      <c r="F30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>0</v>
       </c>
-      <c r="B23" s="1">
-        <f>downScenario!G3</f>
-        <v>-2.9998747164666321E-2</v>
-      </c>
-      <c r="C23" s="1">
-        <f>downScenario!G8</f>
-        <v>-3.2342776434759267E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
-        <f>downScenario!G4</f>
-        <v>-2.9438969864153852E-2</v>
-      </c>
-      <c r="C24" s="1">
-        <f>downScenario!G9</f>
-        <v>-3.1016259767815611E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="B31" s="1">
+        <f>downScenario!J3</f>
+        <v>-9.1057557502310316E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <f>downScenario!J12</f>
+        <v>-9.4859782036337104E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <f>downScenario!J22</f>
+        <v>-9.1011711689489322E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <f>downScenario!J4</f>
+        <v>-8.9924348643959151E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <f>downScenario!J13</f>
+        <v>-8.0266855367553944E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <f>downScenario!J23</f>
+        <v>-8.8614152138047186E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>2</v>
       </c>
-      <c r="B25" s="1">
-        <f>downScenario!G5</f>
-        <v>-2.6942835531774751E-2</v>
-      </c>
-      <c r="C25" s="1">
-        <f>downScenario!G10</f>
-        <v>-2.5879885986104759E-2</v>
+      <c r="B33" s="1">
+        <f>downScenario!J5</f>
+        <v>-8.4650381842090533E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <f>downScenario!J14</f>
+        <v>-7.926182045070676E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <f>downScenario!J24</f>
+        <v>-8.7413422889640699E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2176,15 +2655,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2206,8 +2688,17 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2215,25 +2706,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.1819099915962186</v>
+        <v>8.1961598360646981E-2</v>
       </c>
       <c r="D3">
-        <v>1.3452720497643229</v>
+        <v>3.923444976076607</v>
       </c>
       <c r="E3">
-        <v>4.3</v>
+        <v>-2.0449385683760699</v>
       </c>
       <c r="F3">
-        <v>-0.43582831250678078</v>
+        <v>-3.8711383568437721</v>
       </c>
       <c r="G3">
-        <v>4.4422164487326922E-3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H3">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I3">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J3">
+        <v>6.4794480513910568E-3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2241,25 +2741,34 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9.0954995798109284E-2</v>
+        <v>4.0980799180323491E-2</v>
       </c>
       <c r="D4">
-        <v>2.6905440995286471</v>
+        <v>7.8468899521532132</v>
       </c>
       <c r="E4">
-        <v>4.3</v>
+        <v>-2.0449385683760699</v>
       </c>
       <c r="F4">
-        <v>-0.43582831250678078</v>
+        <v>-3.8711383568437721</v>
       </c>
       <c r="G4">
-        <v>5.8770720677982953E-3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J4">
+        <v>3.5561659518892619E-3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2267,25 +2776,34 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>9.0954995798109284E-2</v>
+        <v>4.0980799180323491E-2</v>
       </c>
       <c r="D5">
-        <v>1.3452720497643229</v>
+        <v>3.923444976076607</v>
       </c>
       <c r="E5">
-        <v>8.6</v>
+        <v>-4.0898771367521398</v>
       </c>
       <c r="F5">
-        <v>-0.43582831250678078</v>
+        <v>-3.8711383568437721</v>
       </c>
       <c r="G5">
-        <v>3.5246712798353272E-2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H5">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I5">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J5">
+        <v>1.192879696500756E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2293,149 +2811,696 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>9.0954995798109284E-2</v>
+        <v>4.0980799180323491E-2</v>
       </c>
       <c r="D6">
-        <v>1.3452720497643229</v>
+        <v>3.923444976076607</v>
       </c>
       <c r="E6">
-        <v>4.3</v>
+        <v>-2.0449385683760699</v>
       </c>
       <c r="F6">
-        <v>-0.87165662501356156</v>
+        <v>-7.742276713687545</v>
       </c>
       <c r="G6">
-        <v>2.6310581210666891E-3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H6">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I6">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J6">
+        <v>3.0513149313013618E-3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E7">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F7">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G7">
+        <v>-0.2778008194148307</v>
+      </c>
+      <c r="H7">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I7">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J7">
+        <v>8.5803728004201878E-3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E8">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F8">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G8">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H8">
+        <v>-3.7049742710119848</v>
+      </c>
+      <c r="I8">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J8">
+        <v>1.448779293638229E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.1819099915962186</v>
-      </c>
-      <c r="D8">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E8">
-        <v>4.3</v>
-      </c>
-      <c r="F8">
-        <v>-0.43582831250678078</v>
-      </c>
-      <c r="G8">
-        <v>3.7602332017481819E-3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>9.0954995798109284E-2</v>
+        <v>4.0980799180323491E-2</v>
       </c>
       <c r="D9">
-        <v>2.6905440995286471</v>
+        <v>3.923444976076607</v>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>-2.0449385683760699</v>
       </c>
       <c r="F9">
-        <v>-0.43582831250678078</v>
+        <v>-3.8711383568437721</v>
       </c>
       <c r="G9">
-        <v>5.0954453920628341E-3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9.0954995798109284E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E10">
-        <v>8.6</v>
-      </c>
-      <c r="F10">
-        <v>-0.43582831250678078</v>
-      </c>
-      <c r="G10">
-        <v>3.1544025783697277E-2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H9">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I9">
+        <v>-2.2722072639478719</v>
+      </c>
+      <c r="J9">
+        <v>4.1467337841990692E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>9.0954995798109284E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E11">
-        <v>4.3</v>
-      </c>
-      <c r="F11">
-        <v>-0.87165662501356156</v>
-      </c>
-      <c r="G11">
-        <v>2.1228835817124442E-3</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>8.1961598360646981E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E12">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F12">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G12">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H12">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I12">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J12">
+        <v>6.7260307580166712E-3</v>
+      </c>
+      <c r="K12" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.8468899521532132</v>
+      </c>
+      <c r="E13">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F13">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G13">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H13">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I13">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J13">
+        <v>4.1200223188522511E-3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E14">
+        <v>-4.0898771367521398</v>
+      </c>
+      <c r="F14">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G14">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H14">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I14">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J14">
+        <v>1.188581834669649E-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E15">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F15">
+        <v>-7.742276713687545</v>
+      </c>
+      <c r="G15">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H15">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I15">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J15">
+        <v>3.596463068101866E-3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E16">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F16">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G16">
+        <v>-0.2778008194148307</v>
+      </c>
+      <c r="H16">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I16">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J16">
+        <v>8.5492084891314879E-3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E17">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F17">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G17">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H17">
+        <v>-3.7049742710119848</v>
+      </c>
+      <c r="I17">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J17">
+        <v>1.443928985462143E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D18">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E18">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F18">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G18">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H18">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I18">
+        <v>-2.2722072639478719</v>
+      </c>
+      <c r="J18">
+        <v>4.0611880568277109E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>8.1961598360646981E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E22">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F22">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G22">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H22">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I22">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J22">
+        <v>8.7345593173510407E-3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D23">
+        <v>7.8468899521532132</v>
+      </c>
+      <c r="E23">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F23">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G23">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H23">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I23">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J23">
+        <v>6.5364278356139401E-3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D24">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E24">
+        <v>-4.0898771367521398</v>
+      </c>
+      <c r="F24">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G24">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H24">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I24">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J24">
+        <v>1.2049145422024069E-2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D25">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E25">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F25">
+        <v>-7.742276713687545</v>
+      </c>
+      <c r="G25">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H25">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I25">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J25">
+        <v>9.8479689434953152E-3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D26">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E26">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F26">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G26">
+        <v>-0.2778008194148307</v>
+      </c>
+      <c r="H26">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I26">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J26">
+        <v>9.8603778605296268E-3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E27">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F27">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G27">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H27">
+        <v>-3.7049742710119848</v>
+      </c>
+      <c r="I27">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J27">
+        <v>1.486526229706037E-2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D28">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E28">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F28">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G28">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H28">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I28">
+        <v>-2.2722072639478719</v>
+      </c>
+      <c r="J28">
+        <v>3.4327926247827593E-2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2445,15 +3510,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2475,236 +3541,820 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4.5477497899054642E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E3">
-        <v>4.3</v>
-      </c>
-      <c r="F3">
-        <v>-0.43582831250678078</v>
-      </c>
-      <c r="G3">
-        <v>4.98051240259147E-3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.0490399590161749E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9.4247733587482091E-3</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>9.0954995798109284E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.67263602488216168</v>
-      </c>
-      <c r="E4">
-        <v>4.3</v>
-      </c>
-      <c r="F4">
-        <v>-0.43582831250678078</v>
-      </c>
-      <c r="G4">
-        <v>4.2630845930586676E-3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.9617224880383031</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.088641440849911E-2</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>9.0954995798109284E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E5">
-        <v>2.15</v>
-      </c>
-      <c r="F5">
-        <v>-0.43582831250678078</v>
-      </c>
-      <c r="G5">
-        <v>-1.042173577221882E-2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-1.022469284188035</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6.7000989019399548E-3</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>9.0954995798109284E-2</v>
-      </c>
-      <c r="D6">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E6">
-        <v>4.3</v>
-      </c>
-      <c r="F6">
-        <v>-0.21791415625339039</v>
-      </c>
-      <c r="G6">
-        <v>5.8860915664244728E-3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-1.935569178421886</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.113883991879306E-2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-6.9450204853707675E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J7" s="4">
+        <v>8.3743109842336419E-3</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-0.92624356775299621</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5.4206009162525923E-3</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>4.5477497899054642E-2</v>
-      </c>
-      <c r="D8">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E8">
-        <v>4.3</v>
-      </c>
-      <c r="F8">
-        <v>-0.43582831250678078</v>
-      </c>
-      <c r="G8">
-        <v>4.2750505554884008E-3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>9.0954995798109284E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.67263602488216168</v>
-      </c>
-      <c r="E9">
-        <v>4.3</v>
-      </c>
-      <c r="F9">
-        <v>-0.43582831250678078</v>
-      </c>
-      <c r="G9">
-        <v>3.6074444603310732E-3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9.0954995798109284E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E10">
-        <v>2.15</v>
-      </c>
-      <c r="F10">
-        <v>-0.43582831250678078</v>
-      </c>
-      <c r="G10">
-        <v>-9.6168457354861517E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-0.56805181598696808</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-8.0691715365516087E-3</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>9.0954995798109284E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.3452720497643229</v>
-      </c>
-      <c r="E11">
-        <v>4.3</v>
-      </c>
-      <c r="F11">
-        <v>-0.21791415625339039</v>
-      </c>
-      <c r="G11">
-        <v>5.0937253655062697E-3</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.0490399590161749E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J12" s="4">
+        <v>9.2598197729016479E-3</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.9617224880383031</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.056282399248386E-2</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-1.022469284188035</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J14" s="4">
+        <v>6.6799259785617418E-3</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-1.935569178421886</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.0824603617859059E-2</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-6.9450204853707675E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J16" s="4">
+        <v>8.3482309073442465E-3</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-0.92624356775299621</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5.4031902245992788E-3</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G18" s="6">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H18" s="6">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I18" s="6">
+        <v>-0.56805181598696808</v>
+      </c>
+      <c r="J18" s="6">
+        <v>-7.6831051322285614E-3</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2.0490399590161749E-2</v>
+      </c>
+      <c r="D22">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E22">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F22">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G22">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H22">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I22">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J22">
+        <v>1.0264018497600559E-2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.9617224880383031</v>
+      </c>
+      <c r="E23">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F23">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G23">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H23">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I23">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J23">
+        <v>1.136308423846911E-2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D24">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E24">
+        <v>-1.022469284188035</v>
+      </c>
+      <c r="F24">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G24">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H24">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I24">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J24">
+        <v>8.6067254452640435E-3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D25">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E25">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F25">
+        <v>-1.935569178421886</v>
+      </c>
+      <c r="G25">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H25">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I25">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J25">
+        <v>9.7073136845284222E-3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D26">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E26">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F26">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G26">
+        <v>-6.9450204853707675E-2</v>
+      </c>
+      <c r="H26">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I26">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J26">
+        <v>9.7011092260112612E-3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E27">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F27">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G27">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H27">
+        <v>-0.92624356775299621</v>
+      </c>
+      <c r="I27">
+        <v>-1.1361036319739359</v>
+      </c>
+      <c r="J27">
+        <v>7.1986670077458931E-3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>4.0980799180323491E-2</v>
+      </c>
+      <c r="D28">
+        <v>3.923444976076607</v>
+      </c>
+      <c r="E28">
+        <v>-2.0449385683760699</v>
+      </c>
+      <c r="F28">
+        <v>-3.8711383568437721</v>
+      </c>
+      <c r="G28">
+        <v>-0.13890040970741541</v>
+      </c>
+      <c r="H28">
+        <v>-1.852487135505992</v>
+      </c>
+      <c r="I28">
+        <v>-0.56805181598696808</v>
+      </c>
+      <c r="J28">
+        <v>-2.5326649676377169E-3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2714,17 +4364,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2739,189 +4389,447 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>508</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-14.392396668906139</v>
+        <v>-1.0051139115729519</v>
       </c>
       <c r="D3">
-        <v>-27.627166305490029</v>
+        <v>-18.45395025855936</v>
       </c>
       <c r="E3">
-        <v>15.25088713829447</v>
+        <v>-8.752000035420334</v>
       </c>
       <c r="F3">
-        <v>9.6349273882588918E-2</v>
+        <v>3.9437552693737041</v>
       </c>
       <c r="G3">
-        <v>0.1189584161067843</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-31.278292183993479</v>
+      </c>
+      <c r="H3">
+        <v>-8.8585667611600076</v>
+      </c>
+      <c r="I3">
+        <v>-1.5583242348691579</v>
+      </c>
+      <c r="J3">
+        <v>0.17468669628652511</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>951</v>
+        <v>584</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-14.57434050591846</v>
+        <v>-0.1705136066068095</v>
       </c>
       <c r="D4">
-        <v>-1.740317249478869</v>
+        <v>13.672553326923159</v>
       </c>
       <c r="E4">
-        <v>11.46713263260755</v>
+        <v>-21.22461374752665</v>
       </c>
       <c r="F4">
-        <v>-4.0044314093171494</v>
+        <v>8.8217791396768614</v>
       </c>
       <c r="G4">
-        <v>9.317289110031382E-2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-29.682355165411099</v>
+      </c>
+      <c r="H4">
+        <v>-10.99655495961319</v>
+      </c>
+      <c r="I4">
+        <v>-2.2076520576512659</v>
+      </c>
+      <c r="J4">
+        <v>0.1470102526051513</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>-0.1796779966270472</v>
+        <v>-0.849241834561278</v>
       </c>
       <c r="D5">
-        <v>10.45991493410313</v>
+        <v>-16.152542810859259</v>
       </c>
       <c r="E5">
-        <v>15.23156019031247</v>
+        <v>-7.0952579727010878</v>
       </c>
       <c r="F5">
-        <v>-1.1533507442271731</v>
+        <v>6.0813831256123461</v>
       </c>
       <c r="G5">
-        <v>8.6986046411914347E-2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+        <v>-25.96648671242119</v>
+      </c>
+      <c r="H5">
+        <v>-7.8644920138315886</v>
+      </c>
+      <c r="I5">
+        <v>-1.19997645113435</v>
+      </c>
+      <c r="J5">
+        <v>0.1455912667960613</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>974</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.49908060832848561</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-6.870951694263038</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-28.379137209670802</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.82068484930288</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-36.833653618579767</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-12.804416778511341</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-2.4702858940261621</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.16194920687103789</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.38365099939943081</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.5145118575597949</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-28.04581705032281</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-3.966760123293255</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-33.345771627492013</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-11.99759212132842</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-2.348346716197554</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.1381238890442332</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>861</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-1.1960360749307519</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-23.90747726819837</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-2.394921460710647</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-15.942870934384089</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-37.729054955852007</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-10.57566601390142</v>
+      </c>
+      <c r="I14" s="6">
+        <v>-1.030804442597782</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.1370816658569555</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>377</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>-15.92648335125055</v>
-      </c>
-      <c r="D8">
-        <v>21.113393079811409</v>
-      </c>
-      <c r="E8">
-        <v>2.4622290629440569</v>
-      </c>
-      <c r="F8">
-        <v>1.9578799657977171</v>
-      </c>
-      <c r="G8">
-        <v>7.8271048594665868E-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>610</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>-14.10751027147187</v>
-      </c>
-      <c r="D9">
-        <v>23.451540507989179</v>
-      </c>
-      <c r="E9">
-        <v>3.2759152915683658</v>
-      </c>
-      <c r="F9">
-        <v>0.46851340823176008</v>
-      </c>
-      <c r="G9">
-        <v>7.1555784687326693E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>475</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.89486475314629499</v>
-      </c>
-      <c r="D10">
-        <v>10.305396358698401</v>
-      </c>
-      <c r="E10">
-        <v>16.055711770575702</v>
-      </c>
-      <c r="F10">
-        <v>-2.9608828902846871</v>
-      </c>
-      <c r="G10">
-        <v>7.1221803156735042E-2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
+      <c r="I21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>609</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>-0.79869446678170852</v>
+      </c>
+      <c r="D22">
+        <v>-11.298895928462169</v>
+      </c>
+      <c r="E22">
+        <v>-27.619555381169189</v>
+      </c>
+      <c r="F22">
+        <v>-44.117261042731172</v>
+      </c>
+      <c r="G22">
+        <v>-14.43848390374032</v>
+      </c>
+      <c r="H22">
+        <v>-13.087105554748071</v>
+      </c>
+      <c r="I22">
+        <v>-2.4491310127812129</v>
+      </c>
+      <c r="J22">
+        <v>0.1431348463092551</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>378</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>-0.88915861291640819</v>
+      </c>
+      <c r="D23">
+        <v>-12.46483738446589</v>
+      </c>
+      <c r="E23">
+        <v>-30.07911335629262</v>
+      </c>
+      <c r="F23">
+        <v>-37.790563801831382</v>
+      </c>
+      <c r="G23">
+        <v>-33.179224619701863</v>
+      </c>
+      <c r="H23">
+        <v>-3.6185867247614589</v>
+      </c>
+      <c r="I23">
+        <v>-2.0167320456270428</v>
+      </c>
+      <c r="J23">
+        <v>0.1277982034344502</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>903</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>-0.75960787896530313</v>
+      </c>
+      <c r="D24">
+        <v>-9.3520257617683988</v>
+      </c>
+      <c r="E24">
+        <v>-32.910257471410972</v>
+      </c>
+      <c r="F24">
+        <v>-42.024900385601683</v>
+      </c>
+      <c r="G24">
+        <v>-37.452719987196652</v>
+      </c>
+      <c r="H24">
+        <v>1.13857665242975</v>
+      </c>
+      <c r="I24">
+        <v>-2.152907985811146</v>
+      </c>
+      <c r="J24">
+        <v>0.1183888515222242</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2931,17 +4839,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2956,189 +4864,443 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.6130012628993962</v>
+        <v>0.69674839791302201</v>
       </c>
       <c r="D3">
-        <v>-8.2070602277096487</v>
+        <v>16.186803653334891</v>
       </c>
       <c r="E3">
-        <v>3.6603922216050782</v>
+        <v>-2.257373837228644</v>
       </c>
       <c r="F3">
-        <v>-0.60525819788630297</v>
+        <v>-10.683260799258839</v>
       </c>
       <c r="G3">
-        <v>-2.9998747164666321E-2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26.812283655115721</v>
+      </c>
+      <c r="H3">
+        <v>5.2254787345424516</v>
+      </c>
+      <c r="I3">
+        <v>-1.3449639332040459</v>
+      </c>
+      <c r="J3">
+        <v>-9.1057557502310316E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>856</v>
+        <v>364</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5.6084529865444797</v>
+        <v>0.79507890897272326</v>
       </c>
       <c r="D4">
-        <v>4.3398936055598831</v>
+        <v>12.210483437504671</v>
       </c>
       <c r="E4">
-        <v>2.6932365923542321</v>
+        <v>15.80874412555171</v>
       </c>
       <c r="F4">
-        <v>-1.136640784385164</v>
+        <v>26.842074406823571</v>
       </c>
       <c r="G4">
-        <v>-2.9438969864153852E-2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27.738929849265251</v>
+      </c>
+      <c r="H4">
+        <v>2.931420484234347</v>
+      </c>
+      <c r="I4">
+        <v>-0.41106180934390779</v>
+      </c>
+      <c r="J4">
+        <v>-8.9924348643959151E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5.5612999027577112</v>
+        <v>0.79507890897272326</v>
       </c>
       <c r="D5">
-        <v>-8.9306245415452548</v>
+        <v>18.936616388699591</v>
       </c>
       <c r="E5">
-        <v>4.9615938339225751</v>
+        <v>16.81159331628885</v>
       </c>
       <c r="F5">
-        <v>-1.766587757019572</v>
+        <v>28.087201773996409</v>
       </c>
       <c r="G5">
-        <v>-2.6942835531774751E-2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+        <v>28.797668458234401</v>
+      </c>
+      <c r="H5">
+        <v>5.2254787345424516</v>
+      </c>
+      <c r="I5">
+        <v>-1.173400375564831</v>
+      </c>
+      <c r="J5">
+        <v>-8.4650381842090533E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>225</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.79507890897272326</v>
+      </c>
+      <c r="D12" s="4">
+        <v>18.936616388699591</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16.81159331628885</v>
+      </c>
+      <c r="F12" s="4">
+        <v>28.092728218204069</v>
+      </c>
+      <c r="G12" s="4">
+        <v>18.75292716277422</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5.2254787345424516</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-0.34915438039749142</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-9.4859782036337104E-2</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>486</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.301651666464693E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>16.271907237254961</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-1.260201815651079</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-16.06784593839021</v>
+      </c>
+      <c r="G13" s="4">
+        <v>20.358971811247208</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3.6524527152659299</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-0.3843710313840541</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-8.0266855367553944E-2</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>775</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.51634909274461649</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7.8683508638959454</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.4604866661188556</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-20.796492001575938</v>
+      </c>
+      <c r="G14" s="6">
+        <v>18.06725071897635</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3.496024505493061</v>
+      </c>
+      <c r="I14" s="6">
+        <v>-1.2525424243994849</v>
+      </c>
+      <c r="J14" s="6">
+        <v>-7.926182045070676E-2</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>261</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>3.1808662866757671</v>
-      </c>
-      <c r="D8">
-        <v>-0.51188911579988639</v>
-      </c>
-      <c r="E8">
-        <v>2.5079152866313992</v>
-      </c>
-      <c r="F8">
-        <v>-3.0722765760206512</v>
-      </c>
-      <c r="G8">
-        <v>-3.2342776434759267E-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>940</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>3.300265433831401</v>
-      </c>
-      <c r="D9">
-        <v>-17.157085099007858</v>
-      </c>
-      <c r="E9">
-        <v>2.4544761238014789</v>
-      </c>
-      <c r="F9">
-        <v>9.477247321367524E-2</v>
-      </c>
-      <c r="G9">
-        <v>-3.1016259767815611E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>168</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3.121395413346586</v>
-      </c>
-      <c r="D10">
-        <v>-13.07053161271986</v>
-      </c>
-      <c r="E10">
-        <v>4.8638612151829621</v>
-      </c>
-      <c r="F10">
-        <v>-2.970027632705087</v>
-      </c>
-      <c r="G10">
-        <v>-2.5879885986104759E-2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
+      <c r="I21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>109</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.79507890897272326</v>
+      </c>
+      <c r="D22">
+        <v>18.546763926418251</v>
+      </c>
+      <c r="E22">
+        <v>16.21848822821876</v>
+      </c>
+      <c r="F22">
+        <v>28.064049866914349</v>
+      </c>
+      <c r="G22">
+        <v>28.797668458234401</v>
+      </c>
+      <c r="H22">
+        <v>5.0493503978392056</v>
+      </c>
+      <c r="I22">
+        <v>-0.7857514011714809</v>
+      </c>
+      <c r="J22">
+        <v>-9.1011711689489322E-2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>969</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.79507890897272326</v>
+      </c>
+      <c r="D23">
+        <v>13.59487213445472</v>
+      </c>
+      <c r="E23">
+        <v>15.717305627207059</v>
+      </c>
+      <c r="F23">
+        <v>25.725166519545791</v>
+      </c>
+      <c r="G23">
+        <v>26.864924237847418</v>
+      </c>
+      <c r="H23">
+        <v>4.9030005991923904</v>
+      </c>
+      <c r="I23">
+        <v>-0.59323881785387689</v>
+      </c>
+      <c r="J23">
+        <v>-8.8614152138047186E-2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>244</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.79507890897272326</v>
+      </c>
+      <c r="D24">
+        <v>16.50890315805966</v>
+      </c>
+      <c r="E24">
+        <v>16.81159331628885</v>
+      </c>
+      <c r="F24">
+        <v>27.75230984340077</v>
+      </c>
+      <c r="G24">
+        <v>28.512563522085909</v>
+      </c>
+      <c r="H24">
+        <v>0.8246963051099433</v>
+      </c>
+      <c r="I24">
+        <v>-0.35630485990626959</v>
+      </c>
+      <c r="J24">
+        <v>-8.7413422889640699E-2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
